--- a/data/Dati Input Strategies_custom.xlsx
+++ b/data/Dati Input Strategies_custom.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Strategy C (ACOG)</t>
   </si>
   <si>
-    <t xml:space="preserve">Strategy D (AMCG)</t>
+    <t xml:space="preserve">Strategy D (ACMG)</t>
   </si>
   <si>
     <t xml:space="preserve">custom</t>
@@ -215,7 +215,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
